--- a/fertility_occupation.xlsx
+++ b/fertility_occupation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="369">
   <si>
     <t>MP</t>
   </si>
@@ -494,6 +494,9 @@
     <t>Enoch Teye Mensah</t>
   </si>
   <si>
+    <t>Edwin Nii Lantey Vanderpuye</t>
+  </si>
+  <si>
     <t>Patrick Yaw Boamah</t>
   </si>
   <si>
@@ -1112,46 +1115,22 @@
     <t>Kids</t>
   </si>
   <si>
-    <t>Edwin NiiŒæLantey Vanderpuye</t>
-  </si>
-  <si>
-    <t>business man"""business man""""</t>
-  </si>
-  <si>
-    <t>biochemist</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>Account Officer</t>
-  </si>
-  <si>
-    <t>Human Resource Manager</t>
-  </si>
-  <si>
-    <t>Marketing Expert</t>
-  </si>
-  <si>
-    <t>Farmer/Agriculturist</t>
-  </si>
-  <si>
-    <t>Head Teacher</t>
-  </si>
-  <si>
-    <t>Teaching</t>
-  </si>
-  <si>
-    <t>Tutor</t>
-  </si>
-  <si>
-    <t>Marketer</t>
-  </si>
-  <si>
-    <t>Project Planning</t>
-  </si>
-  <si>
-    <t>HR</t>
+    <t>Biochemist</t>
+  </si>
+  <si>
+    <t>I changed some occupation names like Accounting, Teaching etc. for conformity</t>
+  </si>
+  <si>
+    <t>I could have extracted the columns straight using R but I had to pull out occupation column and edit it first to enable consistency</t>
+  </si>
+  <si>
+    <t>Reason for Changes:</t>
+  </si>
+  <si>
+    <t>Changes:</t>
+  </si>
+  <si>
+    <t>I also replaced N/A with 0 for MPs who had N/A for number of kids</t>
   </si>
 </sst>
 </file>
@@ -1213,6 +1192,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C276" totalsRowShown="0">
+  <autoFilter ref="A1:C276"/>
+  <sortState ref="A2:C276">
+    <sortCondition ref="B1:B276"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="MP"/>
+    <tableColumn id="2" name="Occupation"/>
+    <tableColumn id="3" name="Kids"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,268 +1518,281 @@
     <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1793,21 +1800,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1815,10 +1822,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1826,120 +1833,120 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1947,32 +1954,32 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1980,24 +1987,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,7 +2012,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2013,65 +2020,65 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2079,10 +2086,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2090,43 +2097,43 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
         <v>279</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -2134,65 +2141,65 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2200,32 +2207,32 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -2233,76 +2240,76 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="B65" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>348</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -2310,54 +2317,54 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2365,384 +2372,384 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>363</v>
+        <v>286</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
         <v>280</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
-      </c>
-      <c r="C101" t="s">
-        <v>346</v>
+        <v>321</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="B102" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="B103" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" t="s">
-        <v>346</v>
+        <v>321</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="B105" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2750,98 +2757,98 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="B115" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="C116">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
         <v>278</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -2849,13 +2856,13 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,7 +2870,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -2871,65 +2878,65 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
         <v>278</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
         <v>278</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="B128" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="C128">
         <v>7</v>
@@ -2937,76 +2944,76 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="B135" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -3014,145 +3021,145 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="B136" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B138" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C138">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B139" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B143" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="B146" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C146">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B148" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3160,7 +3167,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C149">
         <v>5</v>
@@ -3168,43 +3175,43 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="C153">
         <v>4</v>
@@ -3212,65 +3219,65 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="B156" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="C156">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>362</v>
+        <v>55</v>
       </c>
       <c r="B157" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="B158" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C159">
         <v>4</v>
@@ -3278,230 +3285,230 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="B160" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="B161" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="B162" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="B163" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="C163">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>276</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
-      </c>
-      <c r="C166" t="s">
-        <v>346</v>
+        <v>276</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="B167" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="B169" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="C170">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B172" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B173" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B174" t="s">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B175" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B177" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B178" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B179" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -3509,219 +3516,219 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="B182" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="C182">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="B183" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C183">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B184" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B185" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="B186" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="C186">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C187">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B190" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
-      </c>
-      <c r="C191" t="s">
-        <v>346</v>
+        <v>309</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="B192" t="s">
-        <v>308</v>
-      </c>
-      <c r="C192" t="s">
-        <v>346</v>
+        <v>309</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="B193" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C193">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="C195">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="B196" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="B197" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="B198" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="C198">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="B200" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C200">
         <v>3</v>
@@ -3729,65 +3736,65 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="B201" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C201">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="B202" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="C202">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="B203" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C203">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="B204" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="B205" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B206" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3795,21 +3802,21 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="B207" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C207">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="B208" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3817,54 +3824,54 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="B209" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B210" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="B211" t="s">
-        <v>343</v>
-      </c>
-      <c r="C211" t="s">
-        <v>346</v>
+        <v>296</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C212">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
       <c r="B213" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="C213">
         <v>4</v>
@@ -3872,109 +3879,109 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="B214" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="B215" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C215">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="B216" t="s">
-        <v>310</v>
-      </c>
-      <c r="C216" t="s">
-        <v>346</v>
+        <v>358</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="C217">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="B218" t="s">
-        <v>275</v>
-      </c>
-      <c r="C218" t="s">
-        <v>346</v>
+        <v>322</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B220" t="s">
-        <v>302</v>
-      </c>
-      <c r="C220" t="s">
         <v>346</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="B221" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="C221">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="C222">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -3982,43 +3989,43 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="B224" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="B225" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="B226" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C226">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="B227" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -4026,43 +4033,43 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="B228" t="s">
-        <v>346</v>
-      </c>
-      <c r="C228" t="s">
-        <v>346</v>
+        <v>287</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B229" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B230" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -4070,98 +4077,98 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B232" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B233" t="s">
-        <v>373</v>
-      </c>
-      <c r="C233" t="s">
-        <v>346</v>
+        <v>287</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="B234" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="B235" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C235">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="C236">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B237" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="B238" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="B239" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="B240" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -4169,98 +4176,98 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="B241" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="B242" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C242">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="B243" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C243">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B244" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="B245" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B246" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="C246">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="B247" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="B248" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="B249" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="C249">
         <v>5</v>
@@ -4268,197 +4275,197 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="B250" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="B251" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C251">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="B253" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="C253">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>285</v>
-      </c>
-      <c r="C254" t="s">
-        <v>346</v>
+        <v>298</v>
+      </c>
+      <c r="C254">
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="B255" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C255">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="B256" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="C256">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="B257" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C257">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="B258" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C258">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="B259" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C259">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="B260" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="B261" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C262">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="B263" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="B264" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="B265" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C265">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="B266" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C267">
         <v>4</v>
@@ -4466,21 +4473,21 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>357</v>
+        <v>298</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="B269" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="C269">
         <v>3</v>
@@ -4488,82 +4495,85 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="B270" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="C270">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="B271" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="B272" t="s">
         <v>300</v>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="B273" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="B274" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="B275" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C275">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B276" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C276">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/fertility_occupation.xlsx
+++ b/fertility_occupation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="352">
   <si>
     <t>MP</t>
   </si>
@@ -857,9 +857,6 @@
     <t>Lawyer</t>
   </si>
   <si>
-    <t>Banker/Lecturer</t>
-  </si>
-  <si>
     <t>Farmer</t>
   </si>
   <si>
@@ -932,9 +929,6 @@
     <t>Accountant</t>
   </si>
   <si>
-    <t>Consultant, Health</t>
-  </si>
-  <si>
     <t>Social Worker</t>
   </si>
   <si>
@@ -992,12 +986,6 @@
     <t>Educationist</t>
   </si>
   <si>
-    <t>Network engineer/ Bussiness person</t>
-  </si>
-  <si>
-    <t>Journalist/Advertiser</t>
-  </si>
-  <si>
     <t>Business person</t>
   </si>
   <si>
@@ -1013,51 +1001,24 @@
     <t>Veterinary Surgeon</t>
   </si>
   <si>
-    <t>Fashion designer/Politician</t>
-  </si>
-  <si>
-    <t>Manager/Administrator</t>
-  </si>
-  <si>
     <t>Managing Director</t>
   </si>
   <si>
     <t>Project Manager</t>
   </si>
   <si>
-    <t>Manager/Administrator/HR Practitioner</t>
-  </si>
-  <si>
     <t>Tax Administrator</t>
   </si>
   <si>
     <t>Administrator</t>
   </si>
   <si>
-    <t>Educationist/Development Planning</t>
-  </si>
-  <si>
     <t>Jourrnalist</t>
   </si>
   <si>
-    <t>Farmer/Social Worker</t>
-  </si>
-  <si>
-    <t>Economist/Banker/Insurer</t>
-  </si>
-  <si>
-    <t>Education / Agriculture</t>
-  </si>
-  <si>
-    <t>Lecturer/Development Consultant</t>
-  </si>
-  <si>
     <t>Psychologist</t>
   </si>
   <si>
-    <t xml:space="preserve"> PR/Journalist/Advertiser/Marketer</t>
-  </si>
-  <si>
     <t>Retired Deputy Director of Ghana Prisons Service</t>
   </si>
   <si>
@@ -1073,27 +1034,15 @@
     <t>DCE</t>
   </si>
   <si>
-    <t>Economist/Banker</t>
-  </si>
-  <si>
-    <t>Educationist/Teacher</t>
-  </si>
-  <si>
     <t>Chartered Accountant</t>
   </si>
   <si>
-    <t>Accounting,Economics, Commerce</t>
-  </si>
-  <si>
     <t>Youth in Dev. &amp; Work</t>
   </si>
   <si>
     <t>Local Government Practitioner</t>
   </si>
   <si>
-    <t>Investment Manager, COCOBOD</t>
-  </si>
-  <si>
     <t>Army Officer</t>
   </si>
   <si>
@@ -1106,12 +1055,6 @@
     <t>Storekeeper</t>
   </si>
   <si>
-    <t>Biochemist/Hotelier</t>
-  </si>
-  <si>
-    <t>Medical Doctor/Nurse/Health Worker</t>
-  </si>
-  <si>
     <t>Kids</t>
   </si>
   <si>
@@ -1131,6 +1074,12 @@
   </si>
   <si>
     <t>I also replaced N/A with 0 for MPs who had N/A for number of kids</t>
+  </si>
+  <si>
+    <t>I also replaced all occuptions of MPs who indicated they do multiple jobs with "Multiple Occupations"</t>
+  </si>
+  <si>
+    <t>Multiple Occupations</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1458,7 @@
   <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1475,7 @@
         <v>275</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1534,7 +1483,7 @@
         <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1546,16 +1495,16 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="H3" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,16 +1512,16 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1580,13 +1529,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1594,10 +1543,13 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6">
         <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1605,7 +1557,7 @@
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1616,7 +1568,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1627,7 +1579,7 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1638,7 +1590,7 @@
         <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1649,7 +1601,7 @@
         <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1660,7 +1612,7 @@
         <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1671,7 +1623,7 @@
         <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1682,7 +1634,7 @@
         <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1693,7 +1645,7 @@
         <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1704,7 +1656,7 @@
         <v>270</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1715,7 +1667,7 @@
         <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1726,7 +1678,7 @@
         <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1737,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1748,7 +1700,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1759,7 +1711,7 @@
         <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1770,7 +1722,7 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1781,7 +1733,7 @@
         <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1792,7 +1744,7 @@
         <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1803,7 +1755,7 @@
         <v>234</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1814,7 +1766,7 @@
         <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1825,7 +1777,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1836,7 +1788,7 @@
         <v>214</v>
       </c>
       <c r="B28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1847,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1858,7 +1810,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1869,7 +1821,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1880,7 +1832,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1891,7 +1843,7 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1902,7 +1854,7 @@
         <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1913,7 +1865,7 @@
         <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1924,7 +1876,7 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1935,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1946,7 +1898,7 @@
         <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1957,7 +1909,7 @@
         <v>272</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1968,7 +1920,7 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1979,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1990,7 +1942,7 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -2001,7 +1953,7 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -2012,7 +1964,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2023,7 +1975,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2034,7 +1986,7 @@
         <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2045,7 +1997,7 @@
         <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2056,7 +2008,7 @@
         <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2067,7 +2019,7 @@
         <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2078,7 +2030,7 @@
         <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2089,7 +2041,7 @@
         <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2100,7 +2052,7 @@
         <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -2111,7 +2063,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -2122,7 +2074,7 @@
         <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -2133,7 +2085,7 @@
         <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -2144,7 +2096,7 @@
         <v>248</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2155,7 +2107,7 @@
         <v>257</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -2166,7 +2118,7 @@
         <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -2177,7 +2129,7 @@
         <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C59">
         <v>7</v>
@@ -2188,7 +2140,7 @@
         <v>237</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2199,7 +2151,7 @@
         <v>221</v>
       </c>
       <c r="B61" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2210,7 +2162,7 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -2221,7 +2173,7 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -2232,7 +2184,7 @@
         <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -2243,7 +2195,7 @@
         <v>264</v>
       </c>
       <c r="B65" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -2254,7 +2206,7 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -2265,7 +2217,7 @@
         <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2276,7 +2228,7 @@
         <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2287,7 +2239,7 @@
         <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -2298,7 +2250,7 @@
         <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2309,7 +2261,7 @@
         <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -2320,7 +2272,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -2331,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -2342,7 +2294,7 @@
         <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -2353,7 +2305,7 @@
         <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -2364,7 +2316,7 @@
         <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -2375,7 +2327,7 @@
         <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -2386,7 +2338,7 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -2397,7 +2349,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -2408,7 +2360,7 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -2419,7 +2371,7 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -2430,7 +2382,7 @@
         <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2441,7 +2393,7 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C83">
         <v>7</v>
@@ -2452,7 +2404,7 @@
         <v>124</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2463,7 +2415,7 @@
         <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -2474,7 +2426,7 @@
         <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2485,7 +2437,7 @@
         <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -2496,7 +2448,7 @@
         <v>193</v>
       </c>
       <c r="B88" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -2507,7 +2459,7 @@
         <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -2518,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -2529,7 +2481,7 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -2540,7 +2492,7 @@
         <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -2551,7 +2503,7 @@
         <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -2562,7 +2514,7 @@
         <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -2573,7 +2525,7 @@
         <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2584,7 +2536,7 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2595,7 +2547,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2606,7 +2558,7 @@
         <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -2617,7 +2569,7 @@
         <v>133</v>
       </c>
       <c r="B99" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -2628,7 +2580,7 @@
         <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -2639,7 +2591,7 @@
         <v>240</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C101">
         <v>8</v>
@@ -2650,7 +2602,7 @@
         <v>250</v>
       </c>
       <c r="B102" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2661,7 +2613,7 @@
         <v>253</v>
       </c>
       <c r="B103" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -2672,7 +2624,7 @@
         <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2683,7 +2635,7 @@
         <v>232</v>
       </c>
       <c r="B105" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2694,7 +2646,7 @@
         <v>244</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2705,7 +2657,7 @@
         <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -2716,7 +2668,7 @@
         <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -2727,7 +2679,7 @@
         <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -2738,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -2749,7 +2701,7 @@
         <v>95</v>
       </c>
       <c r="B111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -2760,7 +2712,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -2771,7 +2723,7 @@
         <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2782,7 +2734,7 @@
         <v>219</v>
       </c>
       <c r="B114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C114">
         <v>6</v>
@@ -2793,7 +2745,7 @@
         <v>261</v>
       </c>
       <c r="B115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -2804,7 +2756,7 @@
         <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -2815,7 +2767,7 @@
         <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2826,7 +2778,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -2837,7 +2789,7 @@
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -2848,7 +2800,7 @@
         <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -2859,7 +2811,7 @@
         <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -2870,7 +2822,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -2881,7 +2833,7 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -2892,7 +2844,7 @@
         <v>151</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -2903,7 +2855,7 @@
         <v>175</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -2914,7 +2866,7 @@
         <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -2925,7 +2877,7 @@
         <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -2936,7 +2888,7 @@
         <v>196</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C128">
         <v>7</v>
@@ -2947,7 +2899,7 @@
         <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C129">
         <v>6</v>
@@ -2958,7 +2910,7 @@
         <v>183</v>
       </c>
       <c r="B130" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -2969,7 +2921,7 @@
         <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -2980,7 +2932,7 @@
         <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2991,7 +2943,7 @@
         <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C133">
         <v>8</v>
@@ -3002,7 +2954,7 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C134">
         <v>5</v>
@@ -3013,7 +2965,7 @@
         <v>254</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -3024,7 +2976,7 @@
         <v>94</v>
       </c>
       <c r="B136" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C136">
         <v>3</v>
@@ -3035,7 +2987,7 @@
         <v>163</v>
       </c>
       <c r="B137" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -3046,7 +2998,7 @@
         <v>105</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3057,7 +3009,7 @@
         <v>199</v>
       </c>
       <c r="B139" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C139">
         <v>6</v>
@@ -3068,7 +3020,7 @@
         <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -3079,7 +3031,7 @@
         <v>258</v>
       </c>
       <c r="B141" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -3090,7 +3042,7 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3101,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3112,7 +3064,7 @@
         <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3123,7 +3075,7 @@
         <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C145">
         <v>6</v>
@@ -3134,7 +3086,7 @@
         <v>236</v>
       </c>
       <c r="B146" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3145,7 +3097,7 @@
         <v>135</v>
       </c>
       <c r="B147" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="C147">
         <v>4</v>
@@ -3156,7 +3108,7 @@
         <v>140</v>
       </c>
       <c r="B148" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -3167,7 +3119,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="C149">
         <v>5</v>
@@ -3178,7 +3130,7 @@
         <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="C150">
         <v>3</v>
@@ -3189,7 +3141,7 @@
         <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -3607,7 +3559,7 @@
         <v>84</v>
       </c>
       <c r="B189" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C189">
         <v>9</v>
@@ -3618,7 +3570,7 @@
         <v>160</v>
       </c>
       <c r="B190" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3629,7 +3581,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3640,7 +3592,7 @@
         <v>224</v>
       </c>
       <c r="B192" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C192">
         <v>7</v>
@@ -3651,7 +3603,7 @@
         <v>241</v>
       </c>
       <c r="B193" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C193">
         <v>7</v>
@@ -3662,7 +3614,7 @@
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C194">
         <v>6</v>
@@ -3673,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C195">
         <v>4</v>
@@ -3684,7 +3636,7 @@
         <v>251</v>
       </c>
       <c r="B196" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C196">
         <v>4</v>
@@ -3695,7 +3647,7 @@
         <v>130</v>
       </c>
       <c r="B197" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C197">
         <v>4</v>
@@ -3706,7 +3658,7 @@
         <v>154</v>
       </c>
       <c r="B198" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C198">
         <v>6</v>
@@ -3717,7 +3669,7 @@
         <v>167</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -3728,7 +3680,7 @@
         <v>239</v>
       </c>
       <c r="B200" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C200">
         <v>3</v>
@@ -3739,7 +3691,7 @@
         <v>259</v>
       </c>
       <c r="B201" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -3750,7 +3702,7 @@
         <v>169</v>
       </c>
       <c r="B202" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C202">
         <v>5</v>
@@ -3761,7 +3713,7 @@
         <v>274</v>
       </c>
       <c r="B203" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C203">
         <v>5</v>
@@ -3772,7 +3724,7 @@
         <v>162</v>
       </c>
       <c r="B204" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C204">
         <v>4</v>
@@ -3783,7 +3735,7 @@
         <v>68</v>
       </c>
       <c r="B205" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3794,7 +3746,7 @@
         <v>231</v>
       </c>
       <c r="B206" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3805,7 +3757,7 @@
         <v>108</v>
       </c>
       <c r="B207" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3816,7 +3768,7 @@
         <v>138</v>
       </c>
       <c r="B208" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3827,7 +3779,7 @@
         <v>146</v>
       </c>
       <c r="B209" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -3838,7 +3790,7 @@
         <v>168</v>
       </c>
       <c r="B210" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C210">
         <v>7</v>
@@ -3849,7 +3801,7 @@
         <v>31</v>
       </c>
       <c r="B211" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -3860,7 +3812,7 @@
         <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3871,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C213">
         <v>4</v>
@@ -3882,7 +3834,7 @@
         <v>54</v>
       </c>
       <c r="B214" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -3893,7 +3845,7 @@
         <v>273</v>
       </c>
       <c r="B215" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -3904,7 +3856,7 @@
         <v>266</v>
       </c>
       <c r="B216" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -3915,7 +3867,7 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3926,7 +3878,7 @@
         <v>134</v>
       </c>
       <c r="B218" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C218">
         <v>5</v>
@@ -3937,7 +3889,7 @@
         <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -3948,7 +3900,7 @@
         <v>242</v>
       </c>
       <c r="B220" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C220">
         <v>3</v>
@@ -3959,7 +3911,7 @@
         <v>145</v>
       </c>
       <c r="B221" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C221">
         <v>7</v>
@@ -3970,7 +3922,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C222">
         <v>4</v>
@@ -3981,7 +3933,7 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C223">
         <v>3</v>
@@ -3992,7 +3944,7 @@
         <v>37</v>
       </c>
       <c r="B224" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -4003,7 +3955,7 @@
         <v>111</v>
       </c>
       <c r="B225" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -4014,7 +3966,7 @@
         <v>123</v>
       </c>
       <c r="B226" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C226">
         <v>3</v>
@@ -4025,7 +3977,7 @@
         <v>173</v>
       </c>
       <c r="B227" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -4036,7 +3988,7 @@
         <v>176</v>
       </c>
       <c r="B228" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C228">
         <v>3</v>
@@ -4047,7 +3999,7 @@
         <v>189</v>
       </c>
       <c r="B229" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -4058,7 +4010,7 @@
         <v>204</v>
       </c>
       <c r="B230" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4069,7 +4021,7 @@
         <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -4080,7 +4032,7 @@
         <v>215</v>
       </c>
       <c r="B232" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C232">
         <v>4</v>
@@ -4091,7 +4043,7 @@
         <v>246</v>
       </c>
       <c r="B233" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -4102,7 +4054,7 @@
         <v>263</v>
       </c>
       <c r="B234" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C234">
         <v>4</v>
@@ -4113,7 +4065,7 @@
         <v>165</v>
       </c>
       <c r="B235" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4124,7 +4076,7 @@
         <v>247</v>
       </c>
       <c r="B236" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -4135,7 +4087,7 @@
         <v>206</v>
       </c>
       <c r="B237" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4146,7 +4098,7 @@
         <v>72</v>
       </c>
       <c r="B238" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4157,7 +4109,7 @@
         <v>17</v>
       </c>
       <c r="B239" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C239">
         <v>6</v>
@@ -4168,7 +4120,7 @@
         <v>48</v>
       </c>
       <c r="B240" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -4179,7 +4131,7 @@
         <v>66</v>
       </c>
       <c r="B241" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C241">
         <v>4</v>
@@ -4190,7 +4142,7 @@
         <v>71</v>
       </c>
       <c r="B242" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C242">
         <v>12</v>
@@ -4201,7 +4153,7 @@
         <v>161</v>
       </c>
       <c r="B243" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -4212,7 +4164,7 @@
         <v>209</v>
       </c>
       <c r="B244" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4223,7 +4175,7 @@
         <v>58</v>
       </c>
       <c r="B245" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C245">
         <v>3</v>
@@ -4234,7 +4186,7 @@
         <v>218</v>
       </c>
       <c r="B246" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4245,7 +4197,7 @@
         <v>267</v>
       </c>
       <c r="B247" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C247">
         <v>3</v>
@@ -4256,7 +4208,7 @@
         <v>20</v>
       </c>
       <c r="B248" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C248">
         <v>5</v>
@@ -4267,7 +4219,7 @@
         <v>171</v>
       </c>
       <c r="B249" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C249">
         <v>5</v>
@@ -4278,7 +4230,7 @@
         <v>34</v>
       </c>
       <c r="B250" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C250">
         <v>2</v>
@@ -4289,7 +4241,7 @@
         <v>41</v>
       </c>
       <c r="B251" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C251">
         <v>3</v>
@@ -4300,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C252">
         <v>5</v>
@@ -4311,7 +4263,7 @@
         <v>51</v>
       </c>
       <c r="B253" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C253">
         <v>11</v>
@@ -4322,7 +4274,7 @@
         <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C254">
         <v>7</v>
@@ -4333,7 +4285,7 @@
         <v>75</v>
       </c>
       <c r="B255" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C255">
         <v>3</v>
@@ -4344,7 +4296,7 @@
         <v>81</v>
       </c>
       <c r="B256" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C256">
         <v>2</v>
@@ -4355,7 +4307,7 @@
         <v>82</v>
       </c>
       <c r="B257" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C257">
         <v>3</v>
@@ -4366,7 +4318,7 @@
         <v>85</v>
       </c>
       <c r="B258" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C258">
         <v>3</v>
@@ -4377,7 +4329,7 @@
         <v>93</v>
       </c>
       <c r="B259" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C259">
         <v>10</v>
@@ -4388,7 +4340,7 @@
         <v>97</v>
       </c>
       <c r="B260" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C260">
         <v>4</v>
@@ -4399,7 +4351,7 @@
         <v>102</v>
       </c>
       <c r="B261" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4410,7 +4362,7 @@
         <v>104</v>
       </c>
       <c r="B262" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C262">
         <v>8</v>
@@ -4421,7 +4373,7 @@
         <v>166</v>
       </c>
       <c r="B263" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4432,7 +4384,7 @@
         <v>170</v>
       </c>
       <c r="B264" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C264">
         <v>9</v>
@@ -4443,7 +4395,7 @@
         <v>179</v>
       </c>
       <c r="B265" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C265">
         <v>2</v>
@@ -4454,7 +4406,7 @@
         <v>192</v>
       </c>
       <c r="B266" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C266">
         <v>2</v>
@@ -4465,7 +4417,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C267">
         <v>4</v>
@@ -4476,7 +4428,7 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -4487,7 +4439,7 @@
         <v>194</v>
       </c>
       <c r="B269" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C269">
         <v>3</v>
@@ -4498,7 +4450,7 @@
         <v>208</v>
       </c>
       <c r="B270" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C270">
         <v>3</v>
@@ -4509,7 +4461,7 @@
         <v>212</v>
       </c>
       <c r="B271" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C271">
         <v>5</v>
@@ -4520,7 +4472,7 @@
         <v>46</v>
       </c>
       <c r="B272" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C272">
         <v>6</v>
@@ -4531,7 +4483,7 @@
         <v>73</v>
       </c>
       <c r="B273" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -4542,7 +4494,7 @@
         <v>152</v>
       </c>
       <c r="B274" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C274">
         <v>4</v>
@@ -4553,7 +4505,7 @@
         <v>177</v>
       </c>
       <c r="B275" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C275">
         <v>5</v>
@@ -4564,7 +4516,7 @@
         <v>243</v>
       </c>
       <c r="B276" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C276">
         <v>0</v>

--- a/fertility_occupation.xlsx
+++ b/fertility_occupation.xlsx
@@ -632,7 +632,7 @@
   <dimension ref="A1:G276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fertility_occupation.xlsx
+++ b/fertility_occupation.xlsx
@@ -2,19 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\AC_Stuff\Data\tableau\Data_mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="18" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="90">
   <si>
     <t>Occupation</t>
   </si>
@@ -255,13 +260,52 @@
   </si>
   <si>
     <t>Multiple Occupations</t>
+  </si>
+  <si>
+    <t>Count of Kids</t>
+  </si>
+  <si>
+    <t>MAXIMUM</t>
+  </si>
+  <si>
+    <t>MATCH</t>
+  </si>
+  <si>
+    <t>OCCUPATION</t>
+  </si>
+  <si>
+    <t>Accountants</t>
+  </si>
+  <si>
+    <t>Public  Servant</t>
+  </si>
+  <si>
+    <t>NUM OF KIDS</t>
+  </si>
+  <si>
+    <t>RECORDED CASES</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Simon Baaman Suuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Mining </t>
+  </si>
+  <si>
+    <t>NUMBER OF KIDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,16 +321,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -294,18 +365,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -316,6 +505,3462 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PLOT OF MPs FERTILITY BY OCCUPATION</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RECORDED CASES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Lawyer</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Lawyer</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Lawyer</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Lawyer</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Lawyer</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Multiple</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Accountants</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Lecturer</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Teacher</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Educationist</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Teacher</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Tearcher</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Public</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> serrvant</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-0107-4D5F-A916-97C283DD8742}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$A$8:$B$20</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet3!$B$8:$B$20</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$B$8:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$8:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0107-4D5F-A916-97C283DD8742}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="892989968"/>
+        <c:axId val="895311104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="892989968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>NUMBER OF KIDS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="895311104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="895311104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>NUMBER OF RECORDED CASES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892989968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D958DB-2002-4BE4-8909-13CDFB947D13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Simon" refreshedDate="42707.035257870368" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="275">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Occupation" numFmtId="0">
+      <sharedItems count="68">
+        <s v="Accountant"/>
+        <s v="Administrator"/>
+        <s v="Advertising and Marketing"/>
+        <s v="Agric Researcher"/>
+        <s v="Agronomist"/>
+        <s v="Architect"/>
+        <s v="Army Officer"/>
+        <s v="Auditor"/>
+        <s v="Banker"/>
+        <s v="Biochemist"/>
+        <s v="Business Person"/>
+        <s v="Business/Project Development and Management"/>
+        <s v="Chartered Accountant"/>
+        <s v="Chartered Surveyor"/>
+        <s v="Civil Engineer"/>
+        <s v="Communication Expert"/>
+        <s v="Company Director"/>
+        <s v="Computer Scientist"/>
+        <s v="Contractor"/>
+        <s v="DCE"/>
+        <s v="Dental Surgeon"/>
+        <s v="Development Consultant"/>
+        <s v="Director of Programmes"/>
+        <s v="Economist"/>
+        <s v="Education Executive"/>
+        <s v="Educationist"/>
+        <s v="Energy Consultant"/>
+        <s v="Engineer"/>
+        <s v="Entrepreneur"/>
+        <s v="Farmer"/>
+        <s v="Forester"/>
+        <s v="Hotelier"/>
+        <s v="HR Manager"/>
+        <s v="ICT Specialist"/>
+        <s v="Insurance Executive"/>
+        <s v="IT Consultant"/>
+        <s v="Journalist"/>
+        <s v="Jourrnalist"/>
+        <s v="Lawyer"/>
+        <s v="Lecturer"/>
+        <s v="Legal Practitioner"/>
+        <s v="Local Government Practitioner"/>
+        <s v="Management Consultant"/>
+        <s v="Managing Director"/>
+        <s v="Manufacturing"/>
+        <s v="Marketing"/>
+        <s v="Media Personality"/>
+        <s v="Medical Doctor"/>
+        <s v="Miner"/>
+        <s v="Multiple Occupations"/>
+        <s v="NA"/>
+        <s v="Nurse"/>
+        <s v="Pharmacist"/>
+        <s v="Politician"/>
+        <s v="Project Manager"/>
+        <s v="Psychologist"/>
+        <s v="Public Relations Executive"/>
+        <s v="Public Servant"/>
+        <s v="Retired Deputy Director of Ghana Prisons Service"/>
+        <s v="Social Worker"/>
+        <s v="Storekeeper"/>
+        <s v="Surveyor"/>
+        <s v="Tax Administrator"/>
+        <s v="Teacher"/>
+        <s v="Urban Planner"/>
+        <s v="Veterinary Doctor"/>
+        <s v="Veterinary Surgeon"/>
+        <s v="Youth in Dev. &amp; Work"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Kids" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="12" count="13">
+        <n v="7"/>
+        <n v="6"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="2"/>
+        <n v="0"/>
+        <n v="3"/>
+        <n v="1"/>
+        <n v="10"/>
+        <n v="9"/>
+        <n v="8"/>
+        <n v="12"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="275">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="OCCUPATION" colHeaderCaption="NUMBER OF KIDS">
+  <location ref="A1:N70" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="69">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="14">
+        <item x="5"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="68">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Kids" fld="1" subtotal="count" baseField="0" baseItem="2" numFmtId="1"/>
+  </dataFields>
+  <formats count="9">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="26">
+    <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="41" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="42" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="43" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="44" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="45" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="46" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="47" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="50" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium14" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -329,6 +3974,18 @@
     <tableColumn id="3" name="Kids"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A7:C20" totalsRowShown="0">
+  <autoFilter ref="A7:C20"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="OCCUPATION"/>
+    <tableColumn id="2" name="NUM OF KIDS"/>
+    <tableColumn id="3" name="RECORDED CASES"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -631,8 +4288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="F257" sqref="F257"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +4387,12 @@
       <c r="B9">
         <v>5</v>
       </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -737,6 +4400,12 @@
       </c>
       <c r="B10">
         <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2873,4 +6542,2252 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5">
+        <v>8</v>
+      </c>
+      <c r="F41" s="5">
+        <v>9</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
+        <v>2</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5">
+        <v>6</v>
+      </c>
+      <c r="F52" s="5">
+        <v>4</v>
+      </c>
+      <c r="G52" s="5">
+        <v>7</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2</v>
+      </c>
+      <c r="I52" s="5">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>4</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
+        <v>2</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5">
+        <v>4</v>
+      </c>
+      <c r="E66" s="5">
+        <v>7</v>
+      </c>
+      <c r="F66" s="5">
+        <v>2</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="5">
+        <v>2</v>
+      </c>
+      <c r="K66" s="5">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5">
+        <v>1</v>
+      </c>
+      <c r="M66" s="5">
+        <v>1</v>
+      </c>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="71" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="8">
+        <f>MAX(B3:B70)</f>
+        <v>6</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" ref="C71:N71" si="0">MAX(C3:C70)</f>
+        <v>4</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E71" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G71" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H71" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I71" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J71" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K71" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L71" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M71" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="14">
+        <f>MATCH(B71,B3:B70,0)</f>
+        <v>39</v>
+      </c>
+      <c r="C72" s="14">
+        <f t="shared" ref="C72:N72" si="1">MATCH(C71,C3:C70,0)</f>
+        <v>39</v>
+      </c>
+      <c r="D72" s="14">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="E72" s="14">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F72" s="14">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="G72" s="14">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H72" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J72" s="14">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K72" s="14">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="L72" s="14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M72" s="14">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="N72" s="14">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H74" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:F71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="5"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="5"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="5"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="5"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="5"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="5"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="5"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="5"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="5"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="5"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="5"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="5"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="5"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="3"/>
+      <c r="C59" s="5"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="5"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+      <c r="C61" s="5"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="5"/>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+      <c r="C63" s="5"/>
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="5"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="5"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="5"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="3"/>
+      <c r="C67" s="5"/>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="5"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="5"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="5"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="5"/>
+      <c r="F71" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>